--- a/Code/Results/Cases/Case_5_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_239/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6839470991770611</v>
+        <v>0.2891508418385627</v>
       </c>
       <c r="C2">
-        <v>0.2699530566952149</v>
+        <v>0.1067110064959991</v>
       </c>
       <c r="D2">
-        <v>0.0833130168631655</v>
+        <v>0.08690141491899439</v>
       </c>
       <c r="E2">
-        <v>0.3153640761499261</v>
+        <v>0.1362578027949581</v>
       </c>
       <c r="F2">
-        <v>2.56302768878686</v>
+        <v>2.073173598615682</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.715441576359652</v>
+        <v>1.503774068279739</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9492210266277539</v>
+        <v>0.3934059789598336</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.604529185089703</v>
+        <v>0.2581166958739516</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5891893657842218</v>
+        <v>0.2669171553448564</v>
       </c>
       <c r="C3">
-        <v>0.232649519613588</v>
+        <v>0.09709692343255938</v>
       </c>
       <c r="D3">
-        <v>0.08217674542888531</v>
+        <v>0.08603626890612048</v>
       </c>
       <c r="E3">
-        <v>0.2729741838457613</v>
+        <v>0.1251582388022427</v>
       </c>
       <c r="F3">
-        <v>2.329424382863721</v>
+        <v>2.010269201892442</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.580555693805849</v>
+        <v>1.466216486311239</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8175695391651061</v>
+        <v>0.3615412303506957</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5213586449303733</v>
+        <v>0.237157190233944</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5318087596487828</v>
+        <v>0.2535071141166725</v>
       </c>
       <c r="C4">
-        <v>0.2101426817511651</v>
+        <v>0.09125632574800591</v>
       </c>
       <c r="D4">
-        <v>0.08148190537998801</v>
+        <v>0.08549156246950673</v>
       </c>
       <c r="E4">
-        <v>0.2474784822561134</v>
+        <v>0.1184174020751314</v>
       </c>
       <c r="F4">
-        <v>2.189163753875263</v>
+        <v>1.972309074682485</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.499637656250869</v>
+        <v>1.443527407694177</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7379420738891156</v>
+        <v>0.3422739594769268</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.471205190719445</v>
+        <v>0.2244549096416009</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5085985043029382</v>
+        <v>0.2481029561334651</v>
       </c>
       <c r="C5">
-        <v>0.2010572669444173</v>
+        <v>0.08889176286535871</v>
       </c>
       <c r="D5">
-        <v>0.08119896003850968</v>
+        <v>0.08526616324851943</v>
       </c>
       <c r="E5">
-        <v>0.2372049937697867</v>
+        <v>0.1156888395406384</v>
       </c>
       <c r="F5">
-        <v>2.132721718595889</v>
+        <v>1.957005840836317</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.467092682598235</v>
+        <v>1.434374161633727</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7057543370459882</v>
+        <v>0.3344968874324934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4509662712168208</v>
+        <v>0.2193201731429184</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5047541012367844</v>
+        <v>0.2472092509667334</v>
       </c>
       <c r="C6">
-        <v>0.1995534733842277</v>
+        <v>0.08850006149656053</v>
       </c>
       <c r="D6">
-        <v>0.08115197569535937</v>
+        <v>0.08522852797962699</v>
       </c>
       <c r="E6">
-        <v>0.2355056224559888</v>
+        <v>0.1152368650858122</v>
       </c>
       <c r="F6">
-        <v>2.123390467838846</v>
+        <v>1.954474737007118</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.461713218899561</v>
+        <v>1.432859853972857</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7004241796099961</v>
+        <v>0.333209998776141</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4476167825733413</v>
+        <v>0.2184700507953963</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5314950745637645</v>
+        <v>0.253433986867492</v>
       </c>
       <c r="C7">
-        <v>0.2100198205423141</v>
+        <v>0.09122437379535597</v>
       </c>
       <c r="D7">
-        <v>0.08147808927867217</v>
+        <v>0.08548853657422484</v>
       </c>
       <c r="E7">
-        <v>0.2473394819742296</v>
+        <v>0.1183805297003602</v>
       </c>
       <c r="F7">
-        <v>2.188399765201211</v>
+        <v>1.972102019826593</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.499197064822894</v>
+        <v>1.443403589210021</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7375069753118737</v>
+        <v>0.3421687740370203</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4709314745705342</v>
+        <v>0.2243854931377172</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6510904250090164</v>
+        <v>0.2814344113428433</v>
       </c>
       <c r="C8">
-        <v>0.2569996552439306</v>
+        <v>0.1033829862607831</v>
       </c>
       <c r="D8">
-        <v>0.08292032484152045</v>
+        <v>0.08660589618328629</v>
       </c>
       <c r="E8">
-        <v>0.3006266381055056</v>
+        <v>0.1324150529918455</v>
       </c>
       <c r="F8">
-        <v>2.481771089017968</v>
+        <v>2.051345845206299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.66850764100549</v>
+        <v>1.490746713267058</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9035504357546813</v>
+        <v>0.3823569544608745</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.575643077486049</v>
+        <v>0.2508549414455175</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8933968796147269</v>
+        <v>0.3382718547084096</v>
       </c>
       <c r="C9">
-        <v>0.3529656154818781</v>
+        <v>0.1277314873175897</v>
       </c>
       <c r="D9">
-        <v>0.0857961972211001</v>
+        <v>0.08869135224746927</v>
       </c>
       <c r="E9">
-        <v>0.4102183413651659</v>
+        <v>0.1605420427246003</v>
       </c>
       <c r="F9">
-        <v>3.086335014154088</v>
+        <v>2.212060838129958</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.018027161360024</v>
+        <v>1.586568621275859</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.240852066034705</v>
+        <v>0.4635513476984556</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7897632958323584</v>
+        <v>0.3041085383462701</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.078372866056867</v>
+        <v>0.3812282067259787</v>
       </c>
       <c r="C10">
-        <v>0.4268754423397922</v>
+        <v>0.1459438294195934</v>
       </c>
       <c r="D10">
-        <v>0.08797733813631226</v>
+        <v>0.09016119167802117</v>
       </c>
       <c r="E10">
-        <v>0.4952086748669231</v>
+        <v>0.1815995221152704</v>
       </c>
       <c r="F10">
-        <v>3.554666887735067</v>
+        <v>2.333468205380086</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.289205216341884</v>
+        <v>1.658843116397705</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.49907677716223</v>
+        <v>0.5246972720037775</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.954816460823551</v>
+        <v>0.3440906120354654</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.164594589391982</v>
+        <v>0.4010354442656592</v>
       </c>
       <c r="C11">
-        <v>0.461509923092791</v>
+        <v>0.1543027926482239</v>
       </c>
       <c r="D11">
-        <v>0.08899449279023486</v>
+        <v>0.09081677006545164</v>
       </c>
       <c r="E11">
-        <v>0.5351955368936174</v>
+        <v>0.1912696009673454</v>
       </c>
       <c r="F11">
-        <v>3.774567681676842</v>
+        <v>2.38944248506354</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.416634411738585</v>
+        <v>1.692142178706519</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.619645618603272</v>
+        <v>0.5528469701608287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.032194323579063</v>
+        <v>0.3624734781092513</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.197596070231242</v>
+        <v>0.4085745302640191</v>
       </c>
       <c r="C12">
-        <v>0.4747966320328771</v>
+        <v>0.1574790098156598</v>
       </c>
       <c r="D12">
-        <v>0.08938422006712443</v>
+        <v>0.09106317665607122</v>
       </c>
       <c r="E12">
-        <v>0.5505616378914695</v>
+        <v>0.1949448676130103</v>
       </c>
       <c r="F12">
-        <v>3.858975015710257</v>
+        <v>2.410747017387337</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.465562330749208</v>
+        <v>1.70481306698548</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.665827112846188</v>
+        <v>0.5635551530296254</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.061883491614402</v>
+        <v>0.3694631709900165</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.190472082530448</v>
+        <v>0.4069491363540862</v>
       </c>
       <c r="C13">
-        <v>0.4719270336018155</v>
+        <v>0.1567944683270639</v>
       </c>
       <c r="D13">
-        <v>0.08930006605865515</v>
+        <v>0.09101019022726575</v>
       </c>
       <c r="E13">
-        <v>0.5472417324716687</v>
+        <v>0.1941527309334745</v>
       </c>
       <c r="F13">
-        <v>3.84074329493771</v>
+        <v>2.406153871573025</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.454993368882626</v>
+        <v>1.702081428713882</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.655856407691886</v>
+        <v>0.5612467896604301</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.055471146609932</v>
+        <v>0.3679565401984348</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.167302277671638</v>
+        <v>0.4016549161150635</v>
       </c>
       <c r="C14">
-        <v>0.4625994345577169</v>
+        <v>0.1545638831154008</v>
       </c>
       <c r="D14">
-        <v>0.08902645864688452</v>
+        <v>0.09083707891758763</v>
       </c>
       <c r="E14">
-        <v>0.536455019560357</v>
+        <v>0.1915716964803522</v>
       </c>
       <c r="F14">
-        <v>3.781488239976142</v>
+        <v>2.391193045236207</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.420645705968056</v>
+        <v>1.693183388554402</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.623433996682593</v>
+        <v>0.5537269640742011</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.034628738114613</v>
+        <v>0.3630479503521542</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.153157512962991</v>
+        <v>0.3984170763596637</v>
       </c>
       <c r="C15">
-        <v>0.456909150475866</v>
+        <v>0.1531990056478207</v>
       </c>
       <c r="D15">
-        <v>0.08885948999345317</v>
+        <v>0.09073080366664499</v>
       </c>
       <c r="E15">
-        <v>0.52987807934025</v>
+        <v>0.1899924959595225</v>
       </c>
       <c r="F15">
-        <v>3.745345463321854</v>
+        <v>2.382043241879217</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.399697241268825</v>
+        <v>1.687741080586875</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.603645165910876</v>
+        <v>0.5491271840840852</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.021914515034048</v>
+        <v>0.3600450234657302</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.072784201291256</v>
+        <v>0.3799391336107476</v>
       </c>
       <c r="C16">
-        <v>0.4246345039364883</v>
+        <v>0.1453990597689199</v>
       </c>
       <c r="D16">
-        <v>0.08791144633265446</v>
+        <v>0.09011808797378507</v>
       </c>
       <c r="E16">
-        <v>0.492624855717871</v>
+        <v>0.1809694185856117</v>
       </c>
       <c r="F16">
-        <v>3.540446208220573</v>
+        <v>2.329825248187319</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.280966598365325</v>
+        <v>1.656675477386472</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.491266239477852</v>
+        <v>0.5228643851457946</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9498105921419437</v>
+        <v>0.3428932101401045</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.024044903210182</v>
+        <v>0.3686718564833882</v>
       </c>
       <c r="C17">
-        <v>0.4051117478220192</v>
+        <v>0.1406331649766059</v>
       </c>
       <c r="D17">
-        <v>0.08733688931098982</v>
+        <v>0.08973888422915621</v>
       </c>
       <c r="E17">
-        <v>0.4701329256978966</v>
+        <v>0.1754575837911574</v>
       </c>
       <c r="F17">
-        <v>3.416604047871544</v>
+        <v>2.29798290400521</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.20923089731761</v>
+        <v>1.637726077835751</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.42317278811575</v>
+        <v>0.5068389054073634</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9062038027631232</v>
+        <v>0.332421369719377</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9962031695946507</v>
+        <v>0.3622162558482671</v>
       </c>
       <c r="C18">
-        <v>0.3939763587643483</v>
+        <v>0.1378989083177373</v>
       </c>
       <c r="D18">
-        <v>0.08700870226932977</v>
+        <v>0.08951954523979211</v>
       </c>
       <c r="E18">
-        <v>0.4573185727632492</v>
+        <v>0.1722958598637447</v>
       </c>
       <c r="F18">
-        <v>3.346008514461545</v>
+        <v>2.279738130220437</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.168347561147797</v>
+        <v>1.626866471111526</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.384293887194957</v>
+        <v>0.4976528933655686</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8813344192488941</v>
+        <v>0.3264165520435967</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9868078751432847</v>
+        <v>0.3600347937291133</v>
       </c>
       <c r="C19">
-        <v>0.3902214460069899</v>
+        <v>0.1369743251179329</v>
       </c>
       <c r="D19">
-        <v>0.08689794845623311</v>
+        <v>0.08944506844676425</v>
       </c>
       <c r="E19">
-        <v>0.4529999246771581</v>
+        <v>0.1712268104412189</v>
       </c>
       <c r="F19">
-        <v>3.32221088543676</v>
+        <v>2.273572770004961</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.154567419173517</v>
+        <v>1.623196372285889</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.371177144460489</v>
+        <v>0.4945480501415034</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8729488501242031</v>
+        <v>0.3243865536811441</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029213069523621</v>
+        <v>0.369868684202288</v>
       </c>
       <c r="C20">
-        <v>0.4071801163122188</v>
+        <v>0.1411397807903541</v>
       </c>
       <c r="D20">
-        <v>0.08739780901018435</v>
+        <v>0.08977937829553895</v>
       </c>
       <c r="E20">
-        <v>0.4725143318889593</v>
+        <v>0.1760434419233832</v>
       </c>
       <c r="F20">
-        <v>3.42972048497694</v>
+        <v>2.301365312926407</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.216827646461155</v>
+        <v>1.639739171565282</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.430391244548872</v>
+        <v>0.5085415899376358</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9108234728392688</v>
+        <v>0.333534216702617</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.174097827486179</v>
+        <v>0.4032089097061373</v>
       </c>
       <c r="C21">
-        <v>0.4653343035295734</v>
+        <v>0.1552187636825977</v>
       </c>
       <c r="D21">
-        <v>0.08910669186938236</v>
+        <v>0.09088797577648933</v>
       </c>
       <c r="E21">
-        <v>0.5396169720314745</v>
+        <v>0.1923294419643895</v>
       </c>
       <c r="F21">
-        <v>3.798860779316243</v>
+        <v>2.395584454954502</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.430715420868083</v>
+        <v>1.695795290471281</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.632942328933865</v>
+        <v>0.555934399069173</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.040739634260454</v>
+        <v>0.3644889447789339</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.27086466368138</v>
+        <v>0.4252232854565818</v>
       </c>
       <c r="C22">
-        <v>0.50435478979918</v>
+        <v>0.1644835867646748</v>
       </c>
       <c r="D22">
-        <v>0.09025062907510772</v>
+        <v>0.09160175861713071</v>
       </c>
       <c r="E22">
-        <v>0.5847965857255986</v>
+        <v>0.2030516544856837</v>
       </c>
       <c r="F22">
-        <v>4.046817931600657</v>
+        <v>2.457793805870011</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.574476407040905</v>
+        <v>1.732788585509965</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.768423287301687</v>
+        <v>0.5871912726125572</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.127940464226548</v>
+        <v>0.3848860016509192</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.21900924509572</v>
+        <v>0.4134531660330083</v>
       </c>
       <c r="C23">
-        <v>0.4834267033705544</v>
+        <v>0.1595329066427951</v>
       </c>
       <c r="D23">
-        <v>0.08963725605401152</v>
+        <v>0.09122177261780706</v>
       </c>
       <c r="E23">
-        <v>0.5605499656090132</v>
+        <v>0.197321722826203</v>
       </c>
       <c r="F23">
-        <v>3.913810859872683</v>
+        <v>2.424533341383324</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.497353000679382</v>
+        <v>1.713011630923475</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.695802080549981</v>
+        <v>0.5704828484828113</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.081168798769703</v>
+        <v>0.3739843250614001</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.026875987465075</v>
+        <v>0.3693275295492242</v>
       </c>
       <c r="C24">
-        <v>0.4062447331561714</v>
+        <v>0.1409107219810721</v>
       </c>
       <c r="D24">
-        <v>0.0873702606402702</v>
+        <v>0.08976107507302089</v>
       </c>
       <c r="E24">
-        <v>0.4714373375756651</v>
+        <v>0.1757785533652694</v>
       </c>
       <c r="F24">
-        <v>3.423788676746057</v>
+        <v>2.299835933385992</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.213392046137187</v>
+        <v>1.63882894399066</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.427126948562574</v>
+        <v>0.5077717214200845</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9087342990185618</v>
+        <v>0.3330310500839602</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8267993327929446</v>
+        <v>0.3226870816314147</v>
       </c>
       <c r="C25">
-        <v>0.3264904895363259</v>
+        <v>0.1210888805490242</v>
       </c>
       <c r="D25">
-        <v>0.08500931460801553</v>
+        <v>0.08813827952818443</v>
       </c>
       <c r="E25">
-        <v>0.3798934350506613</v>
+        <v>0.1528657194833087</v>
       </c>
       <c r="F25">
-        <v>2.919037925736092</v>
+        <v>2.168004768815962</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.921238125961281</v>
+        <v>1.560321205311254</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.148033507380063</v>
+        <v>0.4413268219244912</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7306673738886147</v>
+        <v>0.2895541743523822</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_239/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2891508418385627</v>
+        <v>0.6839470991774022</v>
       </c>
       <c r="C2">
-        <v>0.1067110064959991</v>
+        <v>0.2699530566949875</v>
       </c>
       <c r="D2">
-        <v>0.08690141491899439</v>
+        <v>0.08331301686315129</v>
       </c>
       <c r="E2">
-        <v>0.1362578027949581</v>
+        <v>0.3153640761499901</v>
       </c>
       <c r="F2">
-        <v>2.073173598615682</v>
+        <v>2.56302768878686</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.503774068279739</v>
+        <v>1.715441576359638</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3934059789598336</v>
+        <v>0.949221026627697</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2581166958739516</v>
+        <v>0.6045291850897314</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2669171553448564</v>
+        <v>0.5891893657842786</v>
       </c>
       <c r="C3">
-        <v>0.09709692343255938</v>
+        <v>0.2326495196135738</v>
       </c>
       <c r="D3">
-        <v>0.08603626890612048</v>
+        <v>0.08217674542888176</v>
       </c>
       <c r="E3">
-        <v>0.1251582388022427</v>
+        <v>0.2729741838457329</v>
       </c>
       <c r="F3">
-        <v>2.010269201892442</v>
+        <v>2.329424382863721</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.466216486311239</v>
+        <v>1.580555693805863</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3615412303506957</v>
+        <v>0.8175695391651061</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.237157190233944</v>
+        <v>0.5213586449303733</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2535071141166725</v>
+        <v>0.5318087596487828</v>
       </c>
       <c r="C4">
-        <v>0.09125632574800591</v>
+        <v>0.2101426817511651</v>
       </c>
       <c r="D4">
-        <v>0.08549156246950673</v>
+        <v>0.08148190537995248</v>
       </c>
       <c r="E4">
-        <v>0.1184174020751314</v>
+        <v>0.2474784822561062</v>
       </c>
       <c r="F4">
-        <v>1.972309074682485</v>
+        <v>2.189163753875263</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.443527407694177</v>
+        <v>1.499637656250869</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3422739594769268</v>
+        <v>0.737942073889144</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2244549096416009</v>
+        <v>0.4712051907194521</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2481029561334651</v>
+        <v>0.5085985043029382</v>
       </c>
       <c r="C5">
-        <v>0.08889176286535871</v>
+        <v>0.2010572669445878</v>
       </c>
       <c r="D5">
-        <v>0.08526616324851943</v>
+        <v>0.08119896003851323</v>
       </c>
       <c r="E5">
-        <v>0.1156888395406384</v>
+        <v>0.2372049937698293</v>
       </c>
       <c r="F5">
-        <v>1.957005840836317</v>
+        <v>2.132721718595889</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.434374161633727</v>
+        <v>1.467092682598206</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3344968874324934</v>
+        <v>0.705754337045974</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2193201731429184</v>
+        <v>0.4509662712168137</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2472092509667334</v>
+        <v>0.5047541012367844</v>
       </c>
       <c r="C6">
-        <v>0.08850006149656053</v>
+        <v>0.1995534733844408</v>
       </c>
       <c r="D6">
-        <v>0.08522852797962699</v>
+        <v>0.08115197569513555</v>
       </c>
       <c r="E6">
-        <v>0.1152368650858122</v>
+        <v>0.2355056224559959</v>
       </c>
       <c r="F6">
-        <v>1.954474737007118</v>
+        <v>2.123390467838931</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,19 +630,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.432859853972857</v>
+        <v>1.46171321889959</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.333209998776141</v>
+        <v>0.7004241796099677</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2184700507953963</v>
+        <v>0.4476167825733057</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.253433986867492</v>
+        <v>0.5314950745637645</v>
       </c>
       <c r="C7">
-        <v>0.09122437379535597</v>
+        <v>0.2100198205426551</v>
       </c>
       <c r="D7">
-        <v>0.08548853657422484</v>
+        <v>0.08147808927861888</v>
       </c>
       <c r="E7">
-        <v>0.1183805297003602</v>
+        <v>0.2473394819743007</v>
       </c>
       <c r="F7">
-        <v>1.972102019826593</v>
+        <v>2.18839976520124</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.443403589210021</v>
+        <v>1.499197064822894</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3421687740370203</v>
+        <v>0.7375069753119021</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2243854931377172</v>
+        <v>0.4709314745705484</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2814344113428433</v>
+        <v>0.6510904250092437</v>
       </c>
       <c r="C8">
-        <v>0.1033829862607831</v>
+        <v>0.256999655244158</v>
       </c>
       <c r="D8">
-        <v>0.08660589618328629</v>
+        <v>0.08292032484160927</v>
       </c>
       <c r="E8">
-        <v>0.1324150529918455</v>
+        <v>0.3006266381055411</v>
       </c>
       <c r="F8">
-        <v>2.051345845206299</v>
+        <v>2.481771089017982</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.490746713267058</v>
+        <v>1.668507641005505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3823569544608745</v>
+        <v>0.903550435754596</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2508549414455175</v>
+        <v>0.5756430774860775</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3382718547084096</v>
+        <v>0.8933968796146985</v>
       </c>
       <c r="C9">
-        <v>0.1277314873175897</v>
+        <v>0.3529656154818781</v>
       </c>
       <c r="D9">
-        <v>0.08869135224746927</v>
+        <v>0.08579619722070575</v>
       </c>
       <c r="E9">
-        <v>0.1605420427246003</v>
+        <v>0.4102183413650948</v>
       </c>
       <c r="F9">
-        <v>2.212060838129958</v>
+        <v>3.086335014154116</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.586568621275859</v>
+        <v>2.018027161360024</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4635513476984556</v>
+        <v>1.240852066034734</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3041085383462701</v>
+        <v>0.7897632958323371</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3812282067259787</v>
+        <v>1.078372866056782</v>
       </c>
       <c r="C10">
-        <v>0.1459438294195934</v>
+        <v>0.4268754423397922</v>
       </c>
       <c r="D10">
-        <v>0.09016119167802117</v>
+        <v>0.08797733813626252</v>
       </c>
       <c r="E10">
-        <v>0.1815995221152704</v>
+        <v>0.4952086748669515</v>
       </c>
       <c r="F10">
-        <v>2.333468205380086</v>
+        <v>3.554666887735124</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.658843116397705</v>
+        <v>2.289205216341898</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5246972720037775</v>
+        <v>1.499076777162202</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3440906120354654</v>
+        <v>0.9548164608235723</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4010354442656592</v>
+        <v>1.164594589391783</v>
       </c>
       <c r="C11">
-        <v>0.1543027926482239</v>
+        <v>0.4615099230925637</v>
       </c>
       <c r="D11">
-        <v>0.09081677006545164</v>
+        <v>0.08899449279061145</v>
       </c>
       <c r="E11">
-        <v>0.1912696009673454</v>
+        <v>0.5351955368936174</v>
       </c>
       <c r="F11">
-        <v>2.38944248506354</v>
+        <v>3.774567681676814</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.692142178706519</v>
+        <v>2.416634411738599</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5528469701608287</v>
+        <v>1.619645618603215</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3624734781092513</v>
+        <v>1.032194323579077</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4085745302640191</v>
+        <v>1.197596070231185</v>
       </c>
       <c r="C12">
-        <v>0.1574790098156598</v>
+        <v>0.4747966320334172</v>
       </c>
       <c r="D12">
-        <v>0.09106317665607122</v>
+        <v>0.08938422006725943</v>
       </c>
       <c r="E12">
-        <v>0.1949448676130103</v>
+        <v>0.5505616378914695</v>
       </c>
       <c r="F12">
-        <v>2.410747017387337</v>
+        <v>3.858975015710257</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.70481306698548</v>
+        <v>2.465562330749222</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5635551530296254</v>
+        <v>1.665827112846102</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3694631709900165</v>
+        <v>1.061883491614402</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4069491363540862</v>
+        <v>1.190472082530448</v>
       </c>
       <c r="C13">
-        <v>0.1567944683270639</v>
+        <v>0.471927033601844</v>
       </c>
       <c r="D13">
-        <v>0.09101019022726575</v>
+        <v>0.08930006605915963</v>
       </c>
       <c r="E13">
-        <v>0.1941527309334745</v>
+        <v>0.5472417324717327</v>
       </c>
       <c r="F13">
-        <v>2.406153871573025</v>
+        <v>3.840743294937766</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.702081428713882</v>
+        <v>2.45499336888264</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5612467896604301</v>
+        <v>1.655856407692085</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3679565401984348</v>
+        <v>1.055471146609925</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4016549161150635</v>
+        <v>1.167302277671695</v>
       </c>
       <c r="C14">
-        <v>0.1545638831154008</v>
+        <v>0.4625994345581717</v>
       </c>
       <c r="D14">
-        <v>0.09083707891758763</v>
+        <v>0.08902645864662873</v>
       </c>
       <c r="E14">
-        <v>0.1915716964803522</v>
+        <v>0.5364550195603357</v>
       </c>
       <c r="F14">
-        <v>2.391193045236207</v>
+        <v>3.78148823997617</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.693183388554402</v>
+        <v>2.420645705968056</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5537269640742011</v>
+        <v>1.623433996682309</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3630479503521542</v>
+        <v>1.034628738114584</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3984170763596637</v>
+        <v>1.153157512962679</v>
       </c>
       <c r="C15">
-        <v>0.1531990056478207</v>
+        <v>0.456909150475866</v>
       </c>
       <c r="D15">
-        <v>0.09073080366664499</v>
+        <v>0.08885948999355975</v>
       </c>
       <c r="E15">
-        <v>0.1899924959595225</v>
+        <v>0.5298780793402926</v>
       </c>
       <c r="F15">
-        <v>2.382043241879217</v>
+        <v>3.745345463321911</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.687741080586875</v>
+        <v>2.399697241268825</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5491271840840852</v>
+        <v>1.603645165910933</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3600450234657302</v>
+        <v>1.021914515034048</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3799391336107476</v>
+        <v>1.072784201291313</v>
       </c>
       <c r="C16">
-        <v>0.1453990597689199</v>
+        <v>0.4246345039370283</v>
       </c>
       <c r="D16">
-        <v>0.09011808797378507</v>
+        <v>0.08791144633265446</v>
       </c>
       <c r="E16">
-        <v>0.1809694185856117</v>
+        <v>0.4926248557179349</v>
       </c>
       <c r="F16">
-        <v>2.329825248187319</v>
+        <v>3.540446208220601</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.656675477386472</v>
+        <v>2.280966598365325</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5228643851457946</v>
+        <v>1.491266239477852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3428932101401045</v>
+        <v>0.9498105921419651</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3686718564833882</v>
+        <v>1.024044903210296</v>
       </c>
       <c r="C17">
-        <v>0.1406331649766059</v>
+        <v>0.4051117478217634</v>
       </c>
       <c r="D17">
-        <v>0.08973888422915621</v>
+        <v>0.08733688931101824</v>
       </c>
       <c r="E17">
-        <v>0.1754575837911574</v>
+        <v>0.470132925697925</v>
       </c>
       <c r="F17">
-        <v>2.29798290400521</v>
+        <v>3.416604047871516</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.637726077835751</v>
+        <v>2.209230897317596</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5068389054073634</v>
+        <v>1.423172788115664</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.332421369719377</v>
+        <v>0.9062038027630948</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3622162558482671</v>
+        <v>0.996203169594736</v>
       </c>
       <c r="C18">
-        <v>0.1378989083177373</v>
+        <v>0.3939763587646041</v>
       </c>
       <c r="D18">
-        <v>0.08951954523979211</v>
+        <v>0.08700870226932977</v>
       </c>
       <c r="E18">
-        <v>0.1722958598637447</v>
+        <v>0.4573185727632563</v>
       </c>
       <c r="F18">
-        <v>2.279738130220437</v>
+        <v>3.346008514461545</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.626866471111526</v>
+        <v>2.168347561147812</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4976528933655686</v>
+        <v>1.384293887194957</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3264165520435967</v>
+        <v>0.8813344192489012</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3600347937291133</v>
+        <v>0.9868078751433131</v>
       </c>
       <c r="C19">
-        <v>0.1369743251179329</v>
+        <v>0.3902214460072173</v>
       </c>
       <c r="D19">
-        <v>0.08944506844676425</v>
+        <v>0.08689794845646048</v>
       </c>
       <c r="E19">
-        <v>0.1712268104412189</v>
+        <v>0.4529999246771155</v>
       </c>
       <c r="F19">
-        <v>2.273572770004961</v>
+        <v>3.32221088543676</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.623196372285889</v>
+        <v>2.154567419173517</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4945480501415034</v>
+        <v>1.371177144460631</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3243865536811441</v>
+        <v>0.872948850124196</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.369868684202288</v>
+        <v>1.029213069523621</v>
       </c>
       <c r="C20">
-        <v>0.1411397807903541</v>
+        <v>0.4071801163129294</v>
       </c>
       <c r="D20">
-        <v>0.08977937829553895</v>
+        <v>0.08739780901019856</v>
       </c>
       <c r="E20">
-        <v>0.1760434419233832</v>
+        <v>0.4725143318889735</v>
       </c>
       <c r="F20">
-        <v>2.301365312926407</v>
+        <v>3.42972048497694</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.639739171565282</v>
+        <v>2.216827646461155</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5085415899376358</v>
+        <v>1.430391244548844</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.333534216702617</v>
+        <v>0.9108234728392333</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4032089097061373</v>
+        <v>1.174097827486122</v>
       </c>
       <c r="C21">
-        <v>0.1552187636825977</v>
+        <v>0.4653343035295734</v>
       </c>
       <c r="D21">
-        <v>0.09088797577648933</v>
+        <v>0.08910669186995079</v>
       </c>
       <c r="E21">
-        <v>0.1923294419643895</v>
+        <v>0.5396169720314674</v>
       </c>
       <c r="F21">
-        <v>2.395584454954502</v>
+        <v>3.798860779316271</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.695795290471281</v>
+        <v>2.430715420868111</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.555934399069173</v>
+        <v>1.632942328934035</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3644889447789339</v>
+        <v>1.040739634260468</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4252232854565818</v>
+        <v>1.270864663681181</v>
       </c>
       <c r="C22">
-        <v>0.1644835867646748</v>
+        <v>0.5043547897990379</v>
       </c>
       <c r="D22">
-        <v>0.09160175861713071</v>
+        <v>0.09025062907525694</v>
       </c>
       <c r="E22">
-        <v>0.2030516544856837</v>
+        <v>0.5847965857255772</v>
       </c>
       <c r="F22">
-        <v>2.457793805870011</v>
+        <v>4.046817931600657</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.732788585509965</v>
+        <v>2.574476407040919</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5871912726125572</v>
+        <v>1.768423287301744</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3848860016509192</v>
+        <v>1.127940464226562</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4134531660330083</v>
+        <v>1.219009245095634</v>
       </c>
       <c r="C23">
-        <v>0.1595329066427951</v>
+        <v>0.4834267033710375</v>
       </c>
       <c r="D23">
-        <v>0.09122177261780706</v>
+        <v>0.08963725605391915</v>
       </c>
       <c r="E23">
-        <v>0.197321722826203</v>
+        <v>0.5605499656089989</v>
       </c>
       <c r="F23">
-        <v>2.424533341383324</v>
+        <v>3.91381085987274</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.713011630923475</v>
+        <v>2.497353000679396</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5704828484828113</v>
+        <v>1.695802080549925</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3739843250614001</v>
+        <v>1.081168798769717</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3693275295492242</v>
+        <v>1.026875987464933</v>
       </c>
       <c r="C24">
-        <v>0.1409107219810721</v>
+        <v>0.4062447331557451</v>
       </c>
       <c r="D24">
-        <v>0.08976107507302089</v>
+        <v>0.08737026064077469</v>
       </c>
       <c r="E24">
-        <v>0.1757785533652694</v>
+        <v>0.4714373375756722</v>
       </c>
       <c r="F24">
-        <v>2.299835933385992</v>
+        <v>3.423788676746113</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.63882894399066</v>
+        <v>2.213392046137187</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5077717214200845</v>
+        <v>1.427126948562545</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3330310500839602</v>
+        <v>0.9087342990185761</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3226870816314147</v>
+        <v>0.8267993327928025</v>
       </c>
       <c r="C25">
-        <v>0.1210888805490242</v>
+        <v>0.3264904895362974</v>
       </c>
       <c r="D25">
-        <v>0.08813827952818443</v>
+        <v>0.0850093146081079</v>
       </c>
       <c r="E25">
-        <v>0.1528657194833087</v>
+        <v>0.3798934350506542</v>
       </c>
       <c r="F25">
-        <v>2.168004768815962</v>
+        <v>2.919037925736149</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.560321205311254</v>
+        <v>1.92123812596131</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4413268219244912</v>
+        <v>1.148033507380063</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2895541743523822</v>
+        <v>0.7306673738886005</v>
       </c>
       <c r="N25">
         <v>0</v>
